--- a/Docs/Tablas Lab 4_Thais Tamaio.xlsx
+++ b/Docs/Tablas Lab 4_Thais Tamaio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thais/Desktop/Universidad/Segundo semestre/EDA/Laboratorios/Laboratorio 4/LabSorts-S06-G06/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF196CD-538E-0E42-A4F8-7217E43486DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64031D0-9C45-B448-BAE4-E4589E5320F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15860" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -635,7 +635,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -650,6 +650,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,7 +674,7 @@
               <c:f>'Datos Lab4'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>665.03</c:v>
                 </c:pt>
@@ -773,7 +788,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -788,6 +803,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +827,7 @@
               <c:f>'Datos Lab4'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>756.61</c:v>
                 </c:pt>
@@ -910,7 +940,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -925,6 +955,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +979,7 @@
               <c:f>'Datos Lab4'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44.53</c:v>
                 </c:pt>
@@ -949,6 +994,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1057.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5808.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14018.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35920.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57490.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,7 +1520,7 @@
               <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1469,6 +1529,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,7 +1541,7 @@
               <c:f>'Datos Lab4'!$B$15:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>46673.74</c:v>
                 </c:pt>
@@ -1603,7 +1666,7 @@
               <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41332.080000000002</c:v>
                 </c:pt>
@@ -1710,7 +1773,7 @@
               <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1719,6 +1782,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,7 +1794,7 @@
               <c:f>'Datos Lab4'!$D$15:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2314.42</c:v>
                 </c:pt>
@@ -1737,6 +1803,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50537.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252813.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,7 +2318,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -2264,6 +2333,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2357,7 @@
               <c:f>'Datos Lab4'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>665.03</c:v>
                 </c:pt>
@@ -2387,7 +2471,7 @@
               <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -2396,6 +2480,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,7 +2492,7 @@
               <c:f>'Datos Lab4'!$B$15:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>46673.74</c:v>
                 </c:pt>
@@ -2916,7 +3003,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -2931,6 +3018,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,7 +3042,7 @@
               <c:f>'Datos Lab4'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>756.61</c:v>
                 </c:pt>
@@ -3054,7 +3156,7 @@
               <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3063,6 +3165,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,7 +3177,7 @@
               <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41332.080000000002</c:v>
                 </c:pt>
@@ -3583,7 +3688,7 @@
               <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3598,6 +3703,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,7 +3727,7 @@
               <c:f>'Datos Lab4'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44.53</c:v>
                 </c:pt>
@@ -3622,6 +3742,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1057.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5808.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14018.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35920.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57490.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,7 +3856,7 @@
               <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3730,6 +3865,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,7 +3877,7 @@
               <c:f>'Datos Lab4'!$D$15:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2314.42</c:v>
                 </c:pt>
@@ -3748,6 +3886,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50537.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252813.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7083,13 +7224,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="8"/>
@@ -7103,7 +7238,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A14:D24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -7419,7 +7554,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7514,49 +7649,53 @@
         <v>1057.72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5">
+        <v>2460.17</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6">
+        <v>5808.17</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>14018.36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>35920.550000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>512000</v>
+        <v>375942</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>57490.68</v>
       </c>
     </row>
@@ -7616,13 +7755,15 @@
         <v>50537.599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <v>252813.92</v>
+      </c>
     </row>
     <row r="19" spans="1:4" hidden="1">
       <c r="A19" s="1">
@@ -7682,15 +7823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -7901,6 +8033,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7908,14 +8049,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7934,6 +8067,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
